--- a/results/I3_N5_M2_T30_C100_DepCentral_s3_P2_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s3_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1183.475718237293</v>
+        <v>2066.761917344469</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.223623521889195e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18571823728904</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.694340545865074</v>
+        <v>16.42556716767945</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.694340545865074</v>
+        <v>3.332632436278654</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1091.000000000004</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.28999999999999</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -846,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.10555953090583</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.8839324825959</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.55091596648896</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.17507627316046</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>29.50875628620634</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,15 +1127,141 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>151.4099999999994</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1304,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>156.3</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1315,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>150.5049999999994</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1326,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>154.0549999999994</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1337,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.7249999999994</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1348,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1359,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1370,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1381,7 +1452,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1392,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1403,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1414,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999984</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1425,7 +1496,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1436,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1447,7 +1518,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1458,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>152.9850000000009</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1469,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.2300000000008</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1480,7 +1551,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>159.1650000000009</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1491,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>156.6300000000008</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1502,7 +1573,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>161.4950000000009</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1513,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>85.66500000000059</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1524,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>77.02500000000057</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1535,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>77.97500000000058</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1546,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>86.04000000000059</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1557,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.91000000000058</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1568,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>151.4099999999994</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1579,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.3</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1590,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.5049999999994</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1601,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>154.0549999999994</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1612,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>149.7249999999994</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1623,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>152.9850000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1634,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>153.2300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1645,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>159.1650000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1656,7 +1727,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>156.6300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1667,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>161.4950000000009</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>51.4099999999994</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
@@ -1725,7 +1796,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>56.3</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
@@ -1736,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>50.5049999999994</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
@@ -1747,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>54.05499999999941</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
@@ -1758,7 +1829,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>49.7249999999994</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
@@ -1769,7 +1840,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.98500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1780,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.23000000000084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1791,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>59.16500000000087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1802,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>56.63000000000085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1813,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>61.49500000000086</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1871,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1882,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1893,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1904,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1915,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1926,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1937,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1948,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1959,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1981,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1992,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2003,7 +2074,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2014,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2025,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2036,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2118,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2058,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2069,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2080,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2091,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2102,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2113,7 +2184,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2124,7 +2195,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2138,7 +2209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2220,7 +2291,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2231,7 +2302,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2242,7 +2313,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2253,7 +2324,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2264,12 +2335,111 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
